--- a/paranoia/checklist.xlsx
+++ b/paranoia/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/paranoia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/paranoia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6961CD0B-755C-BB47-92B4-D80336249853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC6B51-D2C4-134C-8B07-EB41070B8CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{39BA1179-FC76-5B49-B8D6-8F71182928B3}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{39BA1179-FC76-5B49-B8D6-8F71182928B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Paranoia: Internal Security</t>
+  </si>
+  <si>
+    <t>quotations.jpg</t>
+  </si>
+  <si>
+    <t>パラノイア トラブルシューターズ・リトル・レッド・ブック</t>
+  </si>
+  <si>
+    <t>Quotations from Paranoia Troubleshooters</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB4A0C0-A8FD-7C40-B75A-DDDEA2CA3F6C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,19 +533,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -544,25 +553,48 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>